--- a/Месиво/Армяне Типичные Трудовые.xlsx
+++ b/Месиво/Армяне Типичные Трудовые.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>http://noev-kovcheg.ru/mag/2006-14/365.html</t>
   </si>
   <si>
-    <t>2+sin(x)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>http://www.yerkramas.org/article/18066/chem-zanimayutsya-armyane-za-predelami-armenii</t>
+  </si>
+  <si>
+    <t>7+sin(x)</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,10 +427,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -481,19 +481,19 @@
         <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1">
         <v>18</v>
@@ -964,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -993,7 +993,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
